--- a/Data/Simul/Test3/Calib_5.xlsx
+++ b/Data/Simul/Test3/Calib_5.xlsx
@@ -532,88 +532,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407495020632299</v>
+        <v>0.1418293284082499</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1435576950625593</v>
+        <v>0.1401988908635024</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1437655923439867</v>
+        <v>0.1379410312573081</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1685820098247993</v>
+        <v>0.1373882385822231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1957718578398426</v>
+        <v>0.1391923607611229</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2014992361854857</v>
+        <v>0.1556002760015021</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1984657809816665</v>
+        <v>0.1329575903686352</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1897520901935345</v>
+        <v>0.1624933280815331</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1933386683043</v>
+        <v>0.1691059258001959</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1906625820362967</v>
+        <v>0.1936665313203722</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1781138090461249</v>
+        <v>0.188870230318252</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1892904637544753</v>
+        <v>0.1846154707758827</v>
       </c>
       <c r="N2" t="n">
-        <v>0.214151563674194</v>
+        <v>0.1804450235685032</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2159722866075156</v>
+        <v>0.1470831225922202</v>
       </c>
       <c r="P2" t="n">
-        <v>0.142151443216941</v>
+        <v>0.109157935865491</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2011954181255164</v>
+        <v>0.07465266907459128</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2254384718551256</v>
+        <v>0.05685367392345828</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2130866136123542</v>
+        <v>0.0752325639568016</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3106181401128885</v>
+        <v>0.08749161528708219</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2904932087151763</v>
+        <v>0.04988907408967562</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3731479124696254</v>
+        <v>0.1147015179335294</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5601303201798711</v>
+        <v>0.07206912908826829</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6315712256476054</v>
+        <v>0.1632104904476973</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7342315164936578</v>
+        <v>0.3003438074900106</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7469049189928537</v>
+        <v>0.3606250020441393</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7795441844567159</v>
+        <v>0.3911383542942138</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7468427207750086</v>
+        <v>0.7395221863624029</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6598189419889329</v>
+        <v>0.7808011828814722</v>
       </c>
     </row>
     <row r="3">
@@ -623,88 +623,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494235391239664</v>
+        <v>0.1462480397043535</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1410068960444937</v>
+        <v>0.1510488005073424</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1418438844809267</v>
+        <v>0.1564190517555687</v>
       </c>
       <c r="E3" t="n">
-        <v>0.103026300761567</v>
+        <v>0.1587131977393894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05464242649090884</v>
+        <v>0.1539795212085492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03913648905139851</v>
+        <v>0.1300360179353912</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05671625267008967</v>
+        <v>0.16487182825902</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08380906172069424</v>
+        <v>0.1137725238498634</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08859426082380885</v>
+        <v>0.1157861691563231</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05190798788703108</v>
+        <v>0.0730469048483476</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03357907127540811</v>
+        <v>0.09850699605902612</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06189445343602346</v>
+        <v>0.07500362121249364</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06394420299204566</v>
+        <v>0.04983161269526759</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02191956078598385</v>
+        <v>0.004345207670331724</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008700167330311849</v>
+        <v>0.001646418976713847</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02455198041437926</v>
+        <v>0.0006369308563252815</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05464783375707627</v>
+        <v>0.0002944555743382571</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1182564006037271</v>
+        <v>0.0001662660813833113</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06494028734255514</v>
+        <v>4.759421656568408e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00588542735562161</v>
+        <v>9.421983154291206e-06</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007373106201846194</v>
+        <v>1.343359758934889e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>0.006822346315328704</v>
+        <v>3.270280350624348e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001810019389734176</v>
+        <v>3.375091725537478e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002620871006127929</v>
+        <v>9.366452391573983e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.006411080345887606</v>
+        <v>2.884935635617402e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0009931642684808187</v>
+        <v>1.343040767640555e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0001161829557151056</v>
+        <v>1.755772709437688e-06</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.246908818045542e-05</v>
+        <v>9.228192745923352e-07</v>
       </c>
     </row>
     <row r="4">
@@ -714,88 +714,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494235493712611</v>
+        <v>0.1462480448048086</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1410068929155071</v>
+        <v>0.1510488133842905</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1418438812991811</v>
+        <v>0.1564190748578477</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1030269113992171</v>
+        <v>0.1587132237011719</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0546433338597394</v>
+        <v>0.1539795388699424</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03913729037574625</v>
+        <v>0.1300364592504343</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05671726039301372</v>
+        <v>0.1648716896858264</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08381036621815061</v>
+        <v>0.1137729290490779</v>
       </c>
       <c r="J4" t="n">
-        <v>0.079786646059317</v>
+        <v>0.1157870157678016</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09821947898213075</v>
+        <v>0.07304782937898942</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1102726161376255</v>
+        <v>0.06254829085507591</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0936164909688753</v>
+        <v>0.07413786833125137</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0842812525013148</v>
+        <v>0.08645278168099162</v>
       </c>
       <c r="O4" t="n">
-        <v>0.108736277674022</v>
+        <v>0.1170568639481026</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12006952106706</v>
+        <v>0.1232922014332509</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1056146975524868</v>
+        <v>0.1201163467305993</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08507575322812107</v>
+        <v>0.1171846287390635</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05039047996987447</v>
+        <v>0.1253342614767983</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04860821176318682</v>
+        <v>0.1300145285724985</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09871460550659854</v>
+        <v>0.1317231254070842</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06677992615560113</v>
+        <v>0.08264119222349038</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01548024447594452</v>
+        <v>0.08538845464799444</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007220863046896802</v>
+        <v>0.04392720753470725</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001438112858569232</v>
+        <v>0.02721288134898571</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0004569054992263689</v>
+        <v>0.01278890587925817</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.22706638561781e-05</v>
+        <v>0.009177313919641467</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.788538938841235e-06</v>
+        <v>0.001421231495979026</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.091107964395247e-07</v>
+        <v>4.500201736417283e-06</v>
       </c>
     </row>
     <row r="5">
@@ -805,88 +805,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494274069555787</v>
+        <v>0.1462499648468785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1410057149989314</v>
+        <v>0.151053660909233</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1418426834036497</v>
+        <v>0.156427771910663</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1030153242768643</v>
+        <v>0.1587229971164999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05462698733202147</v>
+        <v>0.1539861875160978</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03912293540674683</v>
+        <v>0.130034618239761</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05669914102945231</v>
+        <v>0.1648815624605029</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08378681776234817</v>
+        <v>0.1137709851437361</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08550972888191612</v>
+        <v>0.1157774444455612</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08380860691550816</v>
+        <v>0.07303496551848328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07791988908335848</v>
+        <v>0.07148960345876523</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08333375898524856</v>
+        <v>0.06958043735062015</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0947051727795714</v>
+        <v>0.06768588469422669</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09625812395178283</v>
+        <v>0.05411324506429165</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0639158379886023</v>
+        <v>0.03978627055900803</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08953969591511771</v>
+        <v>0.02739994580302477</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09960398977366154</v>
+        <v>0.02097906902424544</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09319275881523946</v>
+        <v>0.02776402017609799</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1325926691159441</v>
+        <v>0.03231116414685645</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1594593445478784</v>
+        <v>0.01869311307274783</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1879413154438764</v>
+        <v>0.04041202065518223</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2491430250636115</v>
+        <v>0.02933422389617846</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2648247284748232</v>
+        <v>0.06541741447323561</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2212232697869578</v>
+        <v>0.09982430610947347</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1854786293612674</v>
+        <v>0.1425000426844965</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2089637712197327</v>
+        <v>0.1922987848594131</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2517096426448583</v>
+        <v>0.1945021585958304</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3398903087335631</v>
+        <v>0.219003927759912</v>
       </c>
     </row>
     <row r="6">
@@ -896,88 +896,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330509811295149</v>
+        <v>0.1377279187382378</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1455112308467617</v>
+        <v>0.1306551651075467</v>
       </c>
       <c r="D6" t="n">
-        <v>0.143756567845974</v>
+        <v>0.1232208981403567</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1768814152606747</v>
+        <v>0.1195882930562183</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2216834459085054</v>
+        <v>0.1263496408885328</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2388519537477718</v>
+        <v>0.1452296421218486</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2160421032772545</v>
+        <v>0.1165560487817326</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1848167534191273</v>
+        <v>0.1621749372297288</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1744350262255055</v>
+        <v>0.1528494537114898</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2201362225824521</v>
+        <v>0.1909769121967382</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2527552005508689</v>
+        <v>0.1611968914259381</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2092715465964352</v>
+        <v>0.196383820092023</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1823550563234764</v>
+        <v>0.2337551500783061</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2413958294571124</v>
+        <v>0.3277171821798605</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3215453468318377</v>
+        <v>0.3589280257748875</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2489309628731019</v>
+        <v>0.3905076563238673</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1833137446895452</v>
+        <v>0.407344153244015</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09567789726348742</v>
+        <v>0.3873786069963111</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1094449681645555</v>
+        <v>0.3750306279340293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2146234257804154</v>
+        <v>0.4006401018080572</v>
       </c>
       <c r="V6" t="n">
-        <v>0.178872990607341</v>
+        <v>0.4542966153625885</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08580511390836849</v>
+        <v>0.482724081039507</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05707863283996416</v>
+        <v>0.5113639689681054</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01173584890999136</v>
+        <v>0.425212862276346</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.003834246344493415</v>
+        <v>0.3971762850094508</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0004669139728383904</v>
+        <v>0.3283203290989153</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.642204309533361e-05</v>
+        <v>0.05184397397788405</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.124764558397508e-06</v>
+        <v>0.0001313476433585011</v>
       </c>
     </row>
     <row r="7">
@@ -987,88 +987,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.144493746115304</v>
+        <v>0.1437619852338762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1424860789529989</v>
+        <v>0.144870008239925</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1431422736862201</v>
+        <v>0.145658596664394</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1687391419418205</v>
+        <v>0.1464321766971431</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1975720455986929</v>
+        <v>0.1455350945189349</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2043504459403557</v>
+        <v>0.1632063328890297</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1996378901105588</v>
+        <v>0.138593651897406</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1888723123418899</v>
+        <v>0.1714770103530629</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2034749789321322</v>
+        <v>0.1769949493659355</v>
       </c>
       <c r="K7" t="n">
-        <v>0.134983103017577</v>
+        <v>0.2046077690417384</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09484560913532622</v>
+        <v>0.2554832010537182</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1531469984125827</v>
+        <v>0.2034287243237375</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1776217279103841</v>
+        <v>0.1478643194094478</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07417174906304579</v>
+        <v>0.02244293989522533</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03085145038410642</v>
+        <v>0.009774636309195932</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08357687707287356</v>
+        <v>0.004101339263214068</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1679709365217122</v>
+        <v>0.002050532370264245</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3316286976616561</v>
+        <v>0.001408840315255083</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2337368850003673</v>
+        <v>0.0006254185156347676</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02684293295905183</v>
+        <v>0.0001400765460360702</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03781825907037283</v>
+        <v>0.000221272728097457</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0391520697581303</v>
+        <v>5.95169006388249e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01457272499859833</v>
+        <v>6.878488109521881e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02392965125601659</v>
+        <v>0.0002181603640180036</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0553081104878489</v>
+        <v>7.539510979735428e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.009775224006134229</v>
+        <v>3.750454998097824e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.001274439038598674</v>
+        <v>5.507184343774458e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0002665015783586825</v>
+        <v>3.070726946698654e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1078,88 +1078,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.133431275241145</v>
+        <v>0.1379347182635957</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1454254911787479</v>
+        <v>0.1311246609881598</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1438051169400618</v>
+        <v>0.1239135754138616</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1767288965350571</v>
+        <v>0.1204418731073544</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2210599029702895</v>
+        <v>0.1269776562368201</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2379016492924952</v>
+        <v>0.1458566535620331</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2157215715379645</v>
+        <v>0.1172676285468768</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1851525983442554</v>
+        <v>0.1625382862929977</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1748606907730203</v>
+        <v>0.1536990417526929</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2202820185790042</v>
+        <v>0.1916190876953311</v>
       </c>
       <c r="L8" t="n">
-        <v>0.252513804771288</v>
+        <v>0.1619047868292245</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2094462878463594</v>
+        <v>0.1968500579139915</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1829410238190136</v>
+        <v>0.2339652278732571</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2415461724605376</v>
+        <v>0.327241438649968</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3127662331811408</v>
+        <v>0.3574145110814528</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2465903680465243</v>
+        <v>0.3825851119483781</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1839492701747582</v>
+        <v>0.3952934871246153</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09776715207366141</v>
+        <v>0.3827154409973526</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1000588385005026</v>
+        <v>0.374479051327333</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2039810551352579</v>
+        <v>0.3989050870932447</v>
       </c>
       <c r="V8" t="n">
-        <v>0.148066490051337</v>
+        <v>0.3077139474995229</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04346688029874533</v>
+        <v>0.3304213241470624</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02292180560237813</v>
+        <v>0.2160087586034336</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004820729688679146</v>
+        <v>0.1471786159587746</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001606108968422722</v>
+        <v>0.08683148433722217</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0002044714122418093</v>
+        <v>0.07902637023706771</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.680400378520194e-05</v>
+        <v>0.01265362195175652</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.447356100556573e-07</v>
+        <v>2.741142477931454e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1274,88 +1274,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1391664849582982</v>
+        <v>0.1420941342988537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1417090228794613</v>
+        <v>0.1439120212821067</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1439939108775122</v>
+        <v>0.142486849946422</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1590816332593692</v>
+        <v>0.1451687956872817</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1318502370167859</v>
+        <v>0.1465720378011272</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14699122188543</v>
+        <v>0.1328594239235104</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09096043060311136</v>
+        <v>0.1648175863357767</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1167190778705646</v>
+        <v>0.1415558237553558</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1133251297131102</v>
+        <v>0.1230361579780058</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1318757558033485</v>
+        <v>0.1033934629068642</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1547406306243631</v>
+        <v>0.114451046872816</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1344397073493154</v>
+        <v>0.1088619872525034</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1564224579555495</v>
+        <v>0.1309505936273838</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09647399936390393</v>
+        <v>0.1192263482620289</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07662950606153729</v>
+        <v>0.1315474827714588</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1303443947029953</v>
+        <v>0.1440847466019851</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07409346717199887</v>
+        <v>0.1442845649115801</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03006265625642452</v>
+        <v>0.156838211236506</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1089527901667156</v>
+        <v>0.1221890015685772</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05163908982372326</v>
+        <v>0.06319905230891547</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0253692681137985</v>
+        <v>0.1058907002978892</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01286641670001185</v>
+        <v>0.2131740797531696</v>
       </c>
       <c r="X2" t="n">
-        <v>0.009173549630544228</v>
+        <v>0.2664217120584519</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02007597621832014</v>
+        <v>0.08480787942021793</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01158978289822802</v>
+        <v>0.0184052094250333</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004012855182118281</v>
+        <v>0.006223552895349634</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01177670268051325</v>
+        <v>0.003094537891148889</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.001668590199654139</v>
+        <v>0.0009548471844897002</v>
       </c>
     </row>
     <row r="3">
@@ -1365,88 +1365,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1535091887721334</v>
+        <v>0.1458503273132097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1452535697005149</v>
+        <v>0.1406491945223944</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1356838857852431</v>
+        <v>0.1461904815603162</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1067404365429815</v>
+        <v>0.1372753112473402</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1558679662987765</v>
+        <v>0.133013004419161</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1463965704660908</v>
+        <v>0.1576073711615301</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2243480971871365</v>
+        <v>0.1065076151048689</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1865051050782331</v>
+        <v>0.1512916839815909</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2187614613780545</v>
+        <v>0.1852082898854099</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1495615050534306</v>
+        <v>0.2137683772079595</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1494649375431144</v>
+        <v>0.07591149702203059</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2372661008670073</v>
+        <v>0.2516718514016162</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2118946627375814</v>
+        <v>0.1245503572763848</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4155183602731074</v>
+        <v>0.2540963143548235</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4839456016271811</v>
+        <v>0.1494019078010854</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3120708893682161</v>
+        <v>0.06748339101118417</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5069703451423058</v>
+        <v>0.1648419623863097</v>
       </c>
       <c r="S3" t="n">
-        <v>0.627397098755602</v>
+        <v>0.1743967172784909</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4490145758164705</v>
+        <v>0.3363523446021415</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5729037598058824</v>
+        <v>0.4836326417275948</v>
       </c>
       <c r="V3" t="n">
-        <v>0.649743518804864</v>
+        <v>0.3791950996889975</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6674204760389214</v>
+        <v>0.1681375864029602</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6831879926682919</v>
+        <v>0.1079386144430621</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6418430168248077</v>
+        <v>0.40425619485976</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6669554072042414</v>
+        <v>0.5270353182116717</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7010269220410708</v>
+        <v>0.5615055908395279</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6787118898474437</v>
+        <v>0.5510971995668115</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6684324618370302</v>
+        <v>0.585081670574532</v>
       </c>
     </row>
     <row r="4">
@@ -1456,88 +1456,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1535092062511403</v>
+        <v>0.1458503313576789</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1452535745346486</v>
+        <v>0.1406491900865448</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1356838778148711</v>
+        <v>0.146190484587183</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1067407490987323</v>
+        <v>0.1372753011755082</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1558677901132902</v>
+        <v>0.1330129878134158</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1463972499557411</v>
+        <v>0.15760707971152</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2243471052637718</v>
+        <v>0.1065081610975923</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1865049083326526</v>
+        <v>0.1512920381213741</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1701481927527432</v>
+        <v>0.1852086578445979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1944733984381363</v>
+        <v>0.2137684616781116</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1673274048484259</v>
+        <v>0.2995237880464585</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1412493426766172</v>
+        <v>0.169632055750554</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1149733780710879</v>
+        <v>0.2285482783711119</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05542723928356035</v>
+        <v>0.1408478797650927</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03836958701850404</v>
+        <v>0.2054548605201915</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0898257625769117</v>
+        <v>0.2554301668797745</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03804194152337328</v>
+        <v>0.1722915792943314</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009333820187688179</v>
+        <v>0.1380351329700767</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01889178323413029</v>
+        <v>0.03965469223053349</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004443897824149001</v>
+        <v>0.009881336000361764</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001398854511313176</v>
+        <v>0.009018167851439107</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0003337682765420855</v>
+        <v>0.01313873576391611</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001716524062265654</v>
+        <v>0.005298616772399942</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.048819510915556e-05</v>
+        <v>0.0004371107290948643</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.953139802173081e-05</v>
+        <v>2.24266514497787e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.321717612124248e-06</v>
+        <v>1.943691824947905e-06</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.170508285964241e-07</v>
+        <v>1.441976289870797e-07</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.280988815094319e-08</v>
+        <v>1.202797664196766e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1547,88 +1547,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.153515786292536</v>
+        <v>0.1458518538301655</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1452553944363968</v>
+        <v>0.1406475201285028</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1356808776445419</v>
+        <v>0.1461916238324954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1067328145744983</v>
+        <v>0.1372715095431376</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1558672628762862</v>
+        <v>0.1330067365377835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1463819806665086</v>
+        <v>0.157604423896856</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2243592538579716</v>
+        <v>0.1064933766579166</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1865040296651393</v>
+        <v>0.1512784041278244</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1814103812848893</v>
+        <v>0.1851931125054656</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2104439206547387</v>
+        <v>0.213756466730259</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2477148664766305</v>
+        <v>0.2346349720791217</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2154764577375257</v>
+        <v>0.2265019517275112</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2528607275012536</v>
+        <v>0.2710107008547633</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1549438982054129</v>
+        <v>0.2493903765651019</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1226818747818876</v>
+        <v>0.2730406081165959</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2110218987387958</v>
+        <v>0.3005690019150474</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1190925065969661</v>
+        <v>0.2983231702506677</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04770093278951559</v>
+        <v>0.3226057440225689</v>
       </c>
       <c r="T5" t="n">
-        <v>0.175386647453297</v>
+        <v>0.2467575902984216</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07277920432826919</v>
+        <v>0.1257137630672569</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03306974716142955</v>
+        <v>0.2026441626037433</v>
       </c>
       <c r="W5" t="n">
-        <v>0.014762104458267</v>
+        <v>0.4182855801254251</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01002894223300085</v>
+        <v>0.4769739506218011</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01408034127108115</v>
+        <v>0.1146772044016632</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00738175962283871</v>
+        <v>0.01930310789409674</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00213048223977217</v>
+        <v>0.005144556788256602</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00356719181515253</v>
+        <v>0.001887624207644805</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.000406488137486525</v>
+        <v>0.0004682306314270624</v>
       </c>
     </row>
     <row r="6">
@@ -1638,88 +1638,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1272423623305174</v>
+        <v>0.1381738414094112</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1396805863871278</v>
+        <v>0.1457876121841456</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1547978109560049</v>
+        <v>0.1371269115594965</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1830689810468299</v>
+        <v>0.1506498156284901</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1366362513998173</v>
+        <v>0.156991533761004</v>
       </c>
       <c r="G6" t="n">
-        <v>0.136321567139653</v>
+        <v>0.1337641278707452</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0747260756207391</v>
+        <v>0.1787525068917129</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1059791022697616</v>
+        <v>0.1349053145433071</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09603835782785207</v>
+        <v>0.1025984115567181</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1072753802918078</v>
+        <v>0.0791526462903606</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08624257138697623</v>
+        <v>0.1130134665908685</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07261721987333498</v>
+        <v>0.06049661569144306</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05662673216613449</v>
+        <v>0.08178804334475162</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02584990903562918</v>
+        <v>0.04821036180322637</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01727065600781082</v>
+        <v>0.07252619319927747</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0384392326827283</v>
+        <v>0.08983795840132128</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01515924539140245</v>
+        <v>0.05460208907096208</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003320557725145389</v>
+        <v>0.0394499049157499</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00869666324020154</v>
+        <v>0.008285352903128523</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002447310196345811</v>
+        <v>0.001679969177188478</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0008713283423947784</v>
+        <v>0.001978854617162466</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0002571311300188183</v>
+        <v>0.003511887048141053</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001467299836913732</v>
+        <v>0.002207470258305806</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.30636394512498e-05</v>
+        <v>0.0002457207575181812</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.73858308252052e-05</v>
+        <v>1.852681326119003e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.122137975581076e-06</v>
+        <v>1.655351057638995e-06</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.913775473299726e-07</v>
+        <v>1.283929850145408e-07</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.269093012635975e-08</v>
+        <v>1.106109114549654e-08</v>
       </c>
     </row>
     <row r="7">
@@ -1729,88 +1729,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1452440872369973</v>
+        <v>0.1437984264102781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1430965210894241</v>
+        <v>0.1426323095578338</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1399928238527731</v>
+        <v>0.1443730777856907</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1556762200004747</v>
+        <v>0.1419350683361758</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1276979614400661</v>
+        <v>0.1408714942667189</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1410998291245725</v>
+        <v>0.1269410037236401</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08623567038556179</v>
+        <v>0.1587142010051538</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1117047437348982</v>
+        <v>0.1346633747541537</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1241379570976697</v>
+        <v>0.1156461074443608</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09874289339375444</v>
+        <v>0.0964089204818776</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1075375655153288</v>
+        <v>0.04874420261295359</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1257064436450935</v>
+        <v>0.1217151684203397</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1499302934400394</v>
+        <v>0.08053592886663469</v>
       </c>
       <c r="O7" t="n">
-        <v>0.225433199031576</v>
+        <v>0.1393749001235443</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2434062549724076</v>
+        <v>0.09469590905787804</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1784262182831614</v>
+        <v>0.05161483966607112</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2307588842566031</v>
+        <v>0.1095302998485299</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2786500522875377</v>
+        <v>0.1274976047388806</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2312625903338657</v>
+        <v>0.2377089080321653</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2938442155529388</v>
+        <v>0.314002508335664</v>
       </c>
       <c r="V7" t="n">
-        <v>0.288910543106309</v>
+        <v>0.2993856310989784</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3041971661548976</v>
+        <v>0.1807955015970673</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2972043063391754</v>
+        <v>0.1397700708096898</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3238551304368965</v>
+        <v>0.395450306973842</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3140255467253729</v>
+        <v>0.4352081173038841</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2928239804099204</v>
+        <v>0.4271220346513603</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3059431602021779</v>
+        <v>0.4439203124641762</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3294924260143861</v>
+        <v>0.4134952238257443</v>
       </c>
     </row>
     <row r="8">
@@ -1820,88 +1820,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1278128841583774</v>
+        <v>0.138381085380403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1397513309724266</v>
+        <v>0.145722152238472</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1541668130690537</v>
+        <v>0.1374405707283963</v>
       </c>
       <c r="E8" t="n">
-        <v>0.181959165477114</v>
+        <v>0.1504241983820663</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362125308549778</v>
+        <v>0.1565322054007898</v>
       </c>
       <c r="G8" t="n">
-        <v>0.136411580762004</v>
+        <v>0.1336165697121981</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07502336708170798</v>
+        <v>0.1782065529069788</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1060830330487505</v>
+        <v>0.1350133607163941</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09617851994568093</v>
+        <v>0.103109262785442</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1076271463647836</v>
+        <v>0.07975166470456747</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08697202360516108</v>
+        <v>0.1137210267757512</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0732447278511059</v>
+        <v>0.06112036975603249</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05729174812835355</v>
+        <v>0.08261609765896992</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02635339480681024</v>
+        <v>0.04885381912618221</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01769651953067173</v>
+        <v>0.07333303853351292</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03987160364719131</v>
+        <v>0.09097989552461645</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01588360991735057</v>
+        <v>0.05612633423761938</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003534881998086493</v>
+        <v>0.04117668483772697</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007794949755319423</v>
+        <v>0.009052110365032361</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001942522468691368</v>
+        <v>0.001890729383018477</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0006367399598908558</v>
+        <v>0.001887383841789953</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0001629372413412257</v>
+        <v>0.002956629309320669</v>
       </c>
       <c r="X8" t="n">
-        <v>8.682673906964497e-05</v>
+        <v>0.001389565036289362</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.198341433409952e-05</v>
+        <v>0.0001255828579038162</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.058632047202041e-05</v>
+        <v>7.293700603122072e-06</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.316271530619218e-06</v>
+        <v>6.65782622972818e-07</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.470263369464789e-07</v>
+        <v>5.327960466556823e-08</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.310624929319817e-09</v>
+        <v>4.694739215538752e-09</v>
       </c>
     </row>
   </sheetData>
@@ -2016,88 +2016,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407098109466433</v>
+        <v>0.1415141300968525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1421871286199376</v>
+        <v>0.1424095464824371</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1425469187477869</v>
+        <v>0.1472611248805209</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1626973773406807</v>
+        <v>0.1488153730702241</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1490817596819598</v>
+        <v>0.1489912604116329</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1655832403687317</v>
+        <v>0.1210855850789031</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1856519396935784</v>
+        <v>0.1015988159205556</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1963437594828693</v>
+        <v>0.0898460118075622</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2108553729173115</v>
+        <v>0.06203879867572801</v>
       </c>
       <c r="K2" t="n">
-        <v>0.235015539081515</v>
+        <v>0.04061621393679379</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2582670990762977</v>
+        <v>0.04448296885000074</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2590351299099622</v>
+        <v>0.05343974606264849</v>
       </c>
       <c r="N2" t="n">
-        <v>0.176769899787655</v>
+        <v>0.05259843724869831</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1281137889492957</v>
+        <v>0.05168701109817478</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08896916019805086</v>
+        <v>0.04367849641430308</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07457907582148017</v>
+        <v>0.04724262832098332</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05532273919947706</v>
+        <v>0.03655084134244946</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02040655869662485</v>
+        <v>0.04501520402928646</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03741051755126645</v>
+        <v>0.02813795667091893</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01938057747403544</v>
+        <v>0.01653412030864367</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02113300897738796</v>
+        <v>0.009568401529493269</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01109175348573742</v>
+        <v>0.001943870658152454</v>
       </c>
       <c r="X2" t="n">
-        <v>0.006611102758177046</v>
+        <v>5.03474187899338e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006780323333846141</v>
+        <v>2.511156123856625e-05</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001968459375714063</v>
+        <v>9.137936212999207e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.838890596677367e-05</v>
+        <v>4.325181920786802e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.308547843798132e-06</v>
+        <v>2.267343275343395e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.579784939708981e-08</v>
+        <v>1.708676632140768e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2107,88 +2107,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494582022075891</v>
+        <v>0.1471687552682356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1447320723155272</v>
+        <v>0.146291824790155</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1458694504060308</v>
+        <v>0.1255322295947869</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1107117208955143</v>
+        <v>0.1163311552530052</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133991976414467</v>
+        <v>0.1126011247722531</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1056350501270045</v>
+        <v>0.1639692210819776</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07361513897359799</v>
+        <v>0.19557159320129</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04236247642864836</v>
+        <v>0.2136243697030827</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01367165779284446</v>
+        <v>0.2593249975364804</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009954310822320697</v>
+        <v>0.2867449059911532</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01768660189590381</v>
+        <v>0.2095322546674064</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004841630591515453</v>
+        <v>0.1432954527736986</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001288822765810112</v>
+        <v>0.2114569814446668</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004858192905906122</v>
+        <v>0.1193593371433622</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002030124020046721</v>
+        <v>0.042344695895552</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.105077405873133e-05</v>
+        <v>0.02077405767897119</v>
       </c>
       <c r="R3" t="n">
-        <v>2.118272351603953e-05</v>
+        <v>0.008263859226017013</v>
       </c>
       <c r="S3" t="n">
-        <v>3.06805584042228e-06</v>
+        <v>0.01775203536813241</v>
       </c>
       <c r="T3" t="n">
-        <v>1.738086869299396e-05</v>
+        <v>0.005558462654826034</v>
       </c>
       <c r="U3" t="n">
-        <v>3.1129251698513e-06</v>
+        <v>0.001736686888297516</v>
       </c>
       <c r="V3" t="n">
-        <v>6.041584631689038e-07</v>
+        <v>0.0006421122819776565</v>
       </c>
       <c r="W3" t="n">
-        <v>1.827032624583539e-07</v>
+        <v>9.605961495790728e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>7.327706854055459e-08</v>
+        <v>6.946880176736777e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.005317701740324e-09</v>
+        <v>3.765808490346602e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.762739369005867e-11</v>
+        <v>9.10187587253796e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.754417311996241e-13</v>
+        <v>3.141149678190645e-07</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.328500756915688e-14</v>
+        <v>1.29499821791362e-07</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.722267775264328e-16</v>
+        <v>8.550988081011391e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2198,88 +2198,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494582126047027</v>
+        <v>0.1471687618658042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1447320754519901</v>
+        <v>0.1462918280185605</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1458694531974659</v>
+        <v>0.1255322063820568</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1107121349717645</v>
+        <v>0.1163311219383139</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1339920744099585</v>
+        <v>0.1126010883123311</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1056354808405338</v>
+        <v>0.1639684139600447</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07361583017087418</v>
+        <v>0.1955698844701166</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04236309524175949</v>
+        <v>0.2136219549407276</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05192544161579165</v>
+        <v>0.2593223473049503</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05117181689374376</v>
+        <v>0.2867403015356442</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04441781389229955</v>
+        <v>0.3303599076916801</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05317348782848464</v>
+        <v>0.3304165024977793</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06208116919835844</v>
+        <v>0.2723861024839894</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06269760318893891</v>
+        <v>0.3641108596665126</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06065105320670039</v>
+        <v>0.4905980373354652</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06400237096944519</v>
+        <v>0.4955975368435668</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06099243215831739</v>
+        <v>0.5670354625566332</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05188087695528747</v>
+        <v>0.510954117552163</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04492719465056711</v>
+        <v>0.6116136180995615</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04583807937171913</v>
+        <v>0.6588187601702767</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03537282858410293</v>
+        <v>0.7253539595327648</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04530788286519032</v>
+        <v>0.8136069419458462</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05521303241326567</v>
+        <v>0.8702230531185909</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0520401839248749</v>
+        <v>0.9247136395380158</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04918162325258955</v>
+        <v>0.9403634923675183</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05323474973409311</v>
+        <v>0.9431432876062509</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04573707291095222</v>
+        <v>0.9456280096327015</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01025688636576148</v>
+        <v>0.9461742006924763</v>
       </c>
     </row>
     <row r="5">
@@ -2289,88 +2289,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494621265988084</v>
+        <v>0.1471712455007616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144733256191022</v>
+        <v>0.1462930431245779</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1458705038595461</v>
+        <v>0.1255234683738562</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1107057295732584</v>
+        <v>0.1163185814536012</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1339913711356868</v>
+        <v>0.1125873640089475</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1056287464455383</v>
+        <v>0.1639616106279128</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07360430048767179</v>
+        <v>0.195574814736621</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0423525960348047</v>
+        <v>0.2136369283025443</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04517932057208249</v>
+        <v>0.2593356049274878</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05045595172186966</v>
+        <v>0.2867842343239609</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05581214620827731</v>
+        <v>0.3131301677836912</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05545222028775926</v>
+        <v>0.3767742599149994</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03730279152260702</v>
+        <v>0.3727058062190751</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02722830658636551</v>
+        <v>0.3633837879932342</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01902938634745415</v>
+        <v>0.3026448405027817</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01612709945344067</v>
+        <v>0.3286050034116998</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01201915068653992</v>
+        <v>0.2563101538912216</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004501505858403627</v>
+        <v>0.3134278490632688</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007156488441772108</v>
+        <v>0.198114386428452</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004402127925981169</v>
+        <v>0.1175751056064279</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005598896972215288</v>
+        <v>0.07333008091638592</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003254501144739947</v>
+        <v>0.01740521216494558</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002092538233076092</v>
+        <v>0.0006237211376020481</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003782888685628927</v>
+        <v>0.0002940782470988244</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003642531184801962</v>
+        <v>0.0001165773569567495</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.440390720462281e-05</v>
+        <v>5.972678996705185e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.387375394749277e-06</v>
+        <v>3.335087305076407e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.117425087389461e-07</v>
+        <v>2.601241759643847e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2380,88 +2380,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330303548434384</v>
+        <v>0.1363740326817597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1401303903411292</v>
+        <v>0.1370176653425284</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1376608121339371</v>
+        <v>0.1699883002991189</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1696687949967374</v>
+        <v>0.185227570367936</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1487310756984522</v>
+        <v>0.191864499729099</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1742965952802052</v>
+        <v>0.1411332472595578</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2016837405135641</v>
+        <v>0.1120229753910203</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2369988972663875</v>
+        <v>0.09595224696391315</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2914189517355474</v>
+        <v>0.05361879174034848</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2818667803164652</v>
+        <v>0.03239182695374502</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2382817734984038</v>
+        <v>0.03717371345992334</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2853259189413597</v>
+        <v>0.03601610968735087</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3530263641248356</v>
+        <v>0.02911522312333631</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3903384760220867</v>
+        <v>0.04039301890087096</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4208340547453956</v>
+        <v>0.05613644341299039</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4276379395907454</v>
+        <v>0.0510603039298036</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4440195601721468</v>
+        <v>0.0647764264768205</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4778337868206095</v>
+        <v>0.05384900394868327</v>
       </c>
       <c r="T6" t="n">
-        <v>0.500323831007257</v>
+        <v>0.07795854785552582</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5013890763232939</v>
+        <v>0.1045940906805069</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5596339469814103</v>
+        <v>0.0900172458975517</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5110674960688282</v>
+        <v>0.06440645511248995</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4663039786014028</v>
+        <v>0.03403921113557042</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4596004960774496</v>
+        <v>0.01379508006010878</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4555808911217583</v>
+        <v>0.008583049345412954</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4715843826638276</v>
+        <v>0.008341678584356332</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4726106483307015</v>
+        <v>0.008118141282685353</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3946885406439785</v>
+        <v>0.008071312598304627</v>
       </c>
     </row>
     <row r="7">
@@ -2471,88 +2471,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1444733966196949</v>
+        <v>0.1439723469275805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432579453346183</v>
+        <v>0.1443695548674131</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1442306230643186</v>
+        <v>0.1373659539963203</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1658535305638911</v>
+        <v>0.1337101845751682</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1513091416622801</v>
+        <v>0.131860271766948</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1689782686245591</v>
+        <v>0.1061013864848078</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1902971903281509</v>
+        <v>0.08853769095863771</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2034320929787498</v>
+        <v>0.07804943206631154</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09662385512549622</v>
+        <v>0.05279913377873827</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09034350167519276</v>
+        <v>0.03429227383172566</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1473735599985951</v>
+        <v>0.02808967261959918</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0569601115529098</v>
+        <v>0.02390214600619707</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01808660880613034</v>
+        <v>0.03246843410510081</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007543065477463961</v>
+        <v>0.0205677580953311</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003385511917971252</v>
+        <v>0.008426144747222196</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008468565915922574</v>
+        <v>0.004761287239613111</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0004593624991880667</v>
+        <v>0.002079572766983869</v>
       </c>
       <c r="S7" t="n">
-        <v>7.353042067587597e-05</v>
+        <v>0.004356447093759388</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0003862528200299714</v>
+        <v>0.001476711502150379</v>
       </c>
       <c r="U7" t="n">
-        <v>7.700791407876444e-05</v>
+        <v>0.0004967972711294791</v>
       </c>
       <c r="V7" t="n">
-        <v>1.753913195999129e-05</v>
+        <v>0.0001930183902874158</v>
       </c>
       <c r="W7" t="n">
-        <v>5.603370558847316e-06</v>
+        <v>2.953873912053958e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>2.335835152041706e-06</v>
+        <v>1.921662656244191e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.048516644350232e-07</v>
+        <v>1.04837352501508e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.172522378172109e-09</v>
+        <v>2.631549512016464e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.713082782174585e-11</v>
+        <v>9.328108272348e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.340675699597189e-13</v>
+        <v>3.921859379123649e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.473943278928618e-14</v>
+        <v>2.617618604495602e-08</v>
       </c>
     </row>
     <row r="8">
@@ -2562,88 +2562,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1334078961791233</v>
+        <v>0.1366307276590059</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1402271317457753</v>
+        <v>0.137326537374328</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1379522385909144</v>
+        <v>0.16879671647334</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1696507116581536</v>
+        <v>0.1832660133417515</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489026009971953</v>
+        <v>0.1894943909987884</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1742426183134274</v>
+        <v>0.1397805355067962</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2015318598325626</v>
+        <v>0.1111242253217589</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2361470825667809</v>
+        <v>0.09526905621585864</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2903254002409263</v>
+        <v>0.05356032603626682</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2811920994888931</v>
+        <v>0.03243024342697728</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2381610054302228</v>
+        <v>0.03723131492769896</v>
       </c>
       <c r="M8" t="n">
-        <v>0.285211500888009</v>
+        <v>0.03615578305732647</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3514443437946034</v>
+        <v>0.02926901537513329</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3835929404852586</v>
+        <v>0.04049822710251429</v>
       </c>
       <c r="P8" t="n">
-        <v>0.406927821182423</v>
+        <v>0.0561713416916854</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4167656067992375</v>
+        <v>0.05195918257536201</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4271655725608148</v>
+        <v>0.06498368373987451</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4453006731925582</v>
+        <v>0.05464534294470688</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4097783346604144</v>
+        <v>0.07714031678856546</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4289100180657217</v>
+        <v>0.1002444390747178</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3782431751944603</v>
+        <v>0.1008951814515391</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4292725803616828</v>
+        <v>0.1025119217644875</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4697769388818578</v>
+        <v>0.09505479864661344</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4777958971212182</v>
+        <v>0.06116727641152277</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4896264938549862</v>
+        <v>0.05092656965136051</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4750780747609016</v>
+        <v>0.04845057444145429</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4816485828343502</v>
+        <v>0.04621806214987125</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5950544054498764</v>
+        <v>0.04572665392892387</v>
       </c>
     </row>
   </sheetData>
@@ -2758,88 +2758,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1452105117012723</v>
+        <v>0.1449176978015362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1476487596793334</v>
+        <v>0.1478826798136097</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1479850147313629</v>
+        <v>0.1477060447607813</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1543903060046675</v>
+        <v>0.1486737905814383</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1705718393131661</v>
+        <v>0.1476437413841771</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1762593784128916</v>
+        <v>0.1422768226476569</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1976142660557887</v>
+        <v>0.1216705030092788</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2060536993368474</v>
+        <v>0.1001291474236487</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2303987981647506</v>
+        <v>0.1076468101584884</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2501599378199307</v>
+        <v>0.06977614393800351</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2673420577118384</v>
+        <v>0.07150283883290424</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2959937194895984</v>
+        <v>0.07588143033009423</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3542138953636152</v>
+        <v>0.0808348291349627</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3334170547637829</v>
+        <v>0.08863904395480074</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4104271656628726</v>
+        <v>0.08854864530342631</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.285523729103549</v>
+        <v>0.07746631357691326</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2949790491691515</v>
+        <v>0.0576862036688813</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3912831322200734</v>
+        <v>0.05303561565395188</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4009740531954644</v>
+        <v>0.06768363600953668</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2719338870727076</v>
+        <v>0.09815424591536853</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1707437417623822</v>
+        <v>0.1152756433209945</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3445831081909629</v>
+        <v>0.1154524257089332</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6745873377021034</v>
+        <v>0.1004707606141084</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7176097453981513</v>
+        <v>0.1438723815335602</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5856248342162013</v>
+        <v>0.1665220094500063</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6718558583887505</v>
+        <v>0.2359778537683039</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7590277670673761</v>
+        <v>0.1350204232493409</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5418947436696514</v>
+        <v>0.111836927483126</v>
       </c>
     </row>
     <row r="3">
@@ -2849,88 +2849,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1354338344374321</v>
+        <v>0.1359264788924938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1263872813402847</v>
+        <v>0.1208131528950513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1280955777636775</v>
+        <v>0.1232243801619662</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1218829206407799</v>
+        <v>0.118328763288086</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08901153603926874</v>
+        <v>0.1265395015133305</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09108821780509577</v>
+        <v>0.1402468912579473</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05797008498362622</v>
+        <v>0.1740965126635195</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06705431997108292</v>
+        <v>0.2090470614063944</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03572926300299515</v>
+        <v>0.2029386602957833</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03028429673100372</v>
+        <v>0.2548622576743935</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01472079968293049</v>
+        <v>0.04401286479145729</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009672246429623318</v>
+        <v>0.07120204418086415</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008430574669667068</v>
+        <v>0.1186785025212939</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003017912700706614</v>
+        <v>0.1040799850290003</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01042742817883924</v>
+        <v>0.1636731300687747</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001986192750604343</v>
+        <v>0.330073525639983</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0005258254796635894</v>
+        <v>0.4856536870295488</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003776259538188923</v>
+        <v>0.5233071655390897</v>
       </c>
       <c r="T3" t="n">
-        <v>4.752584033581289e-05</v>
+        <v>0.4042781596724803</v>
       </c>
       <c r="U3" t="n">
-        <v>1.455086980140401e-05</v>
+        <v>0.2236704508470913</v>
       </c>
       <c r="V3" t="n">
-        <v>1.011080947508939e-06</v>
+        <v>0.2757779669623873</v>
       </c>
       <c r="W3" t="n">
-        <v>4.863698651151263e-07</v>
+        <v>0.1592777494278141</v>
       </c>
       <c r="X3" t="n">
-        <v>5.85586765749159e-07</v>
+        <v>0.0836425827202647</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.899758511733215e-08</v>
+        <v>0.08523855185209456</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.640109720617261e-09</v>
+        <v>0.01807439058321369</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.50410839974939e-09</v>
+        <v>0.03143571379605918</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.211312070526827e-10</v>
+        <v>0.007494622292804205</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.450641597641461e-11</v>
+        <v>2.207582825979336e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2940,88 +2940,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1354338230907142</v>
+        <v>0.1359264686480181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1263872575411925</v>
+        <v>0.120813124585646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1280955543706084</v>
+        <v>0.1232243540029233</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1218832933015017</v>
+        <v>0.1183287313342956</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08901213819675655</v>
+        <v>0.1265394778101164</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09108906704808553</v>
+        <v>0.1402469276202622</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05797106184469566</v>
+        <v>0.1740959607608916</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06705565880379737</v>
+        <v>0.2090460685803338</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07541100306374186</v>
+        <v>0.2029383667089957</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0748548060483301</v>
+        <v>0.2548608995938936</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0815291157418372</v>
+        <v>0.4289883281137779</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08107959626356553</v>
+        <v>0.3911973839857458</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07188779492220804</v>
+        <v>0.3330524776607053</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08256170573337289</v>
+        <v>0.3186634830950517</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06221759541248094</v>
+        <v>0.2652081528535387</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08968131637881679</v>
+        <v>0.1556032931937248</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09657264111589173</v>
+        <v>0.08739716980038427</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09299497533270221</v>
+        <v>0.06802382913970952</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08123610502348509</v>
+        <v>0.1218240989613946</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1270874539465476</v>
+        <v>0.1841894513569438</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1371961675064408</v>
+        <v>0.09435513511847127</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05949957570688394</v>
+        <v>0.1902455714872949</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003343410735640066</v>
+        <v>0.3073872679632591</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0003684499078992971</v>
+        <v>0.1744092711137953</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0001336058541196488</v>
+        <v>0.1090865490905299</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.036992710994839e-05</v>
+        <v>0.02897678599766855</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.678305901527479e-07</v>
+        <v>0.1453079377975014</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.092200535579799e-08</v>
+        <v>0.07232053617734219</v>
       </c>
     </row>
     <row r="5">
@@ -3031,88 +3031,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1354295516726802</v>
+        <v>0.1359226121896272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1263782986312401</v>
+        <v>0.1208024681029708</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1280867481485101</v>
+        <v>0.1232145068937764</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1218680086877643</v>
+        <v>0.1183167029749984</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08899520663137504</v>
+        <v>0.1265305549785752</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09106766620566709</v>
+        <v>0.1402359423912805</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05794981375074282</v>
+        <v>0.1740927627994907</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06702742939042601</v>
+        <v>0.2090479995079104</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07477489977730815</v>
+        <v>0.2029285216200593</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08122211660873593</v>
+        <v>0.2548658325216567</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08649399485743867</v>
+        <v>0.2569819980277781</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09570299765015509</v>
+        <v>0.2739130583300871</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1150320658361611</v>
+        <v>0.2935877302237974</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1090140455545101</v>
+        <v>0.3226799528002711</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1327141756674276</v>
+        <v>0.3239974218485082</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09378065237948753</v>
+        <v>0.2808516805517757</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09756181406863094</v>
+        <v>0.2077973503369709</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1294903092233222</v>
+        <v>0.1904254009849687</v>
       </c>
       <c r="T5" t="n">
-        <v>0.142562324892749</v>
+        <v>0.2445878594059548</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1090899621819271</v>
+        <v>0.3568698477381149</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08982261431646842</v>
+        <v>0.3723363802081069</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1731923349657365</v>
+        <v>0.4082378263389848</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2578214355517826</v>
+        <v>0.385589146006233</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2743308839802882</v>
+        <v>0.4918416631078513</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.411130354263369</v>
+        <v>0.6427213958211291</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3278733666702354</v>
+        <v>0.6671310105917209</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2409559773690352</v>
+        <v>0.6285513501560952</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4581048983456374</v>
+        <v>0.7740763748364489</v>
       </c>
     </row>
     <row r="6">
@@ -3122,88 +3122,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1539837235054982</v>
+        <v>0.1533874763895648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1680079572148882</v>
+        <v>0.1779638485439937</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1645365968345917</v>
+        <v>0.1737360917542289</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1677139553627447</v>
+        <v>0.1816942368998096</v>
       </c>
       <c r="F6" t="n">
-        <v>0.200993004749078</v>
+        <v>0.1677331401215154</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1925681904046573</v>
+        <v>0.1525415967777267</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2212335575088011</v>
+        <v>0.1218575530896458</v>
       </c>
       <c r="I6" t="n">
-        <v>0.200044393722487</v>
+        <v>0.09044260590602581</v>
       </c>
       <c r="J6" t="n">
-        <v>0.223238833003478</v>
+        <v>0.09251075578229134</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2170886323964141</v>
+        <v>0.05125352756908304</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2337987597800526</v>
+        <v>0.09030260198803544</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2257532476732658</v>
+        <v>0.08099901056383567</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1903603557744447</v>
+        <v>0.06722277603422527</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2202671113679459</v>
+        <v>0.06298858140092659</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1460983828447165</v>
+        <v>0.05135425275558909</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.254258547610598</v>
+        <v>0.02724812838701583</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2494504528433599</v>
+        <v>0.01422453690355482</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1841629938364373</v>
+        <v>0.01051973788583578</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1912755388410932</v>
+        <v>0.02107262756865672</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2297044839643934</v>
+        <v>0.02918516428876824</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2937751036215095</v>
+        <v>0.01925128265280674</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2534561524584261</v>
+        <v>0.03040515018868311</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05021156441205341</v>
+        <v>0.03975821285240553</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.005942019947869664</v>
+        <v>0.03062532795517128</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.002367898642014109</v>
+        <v>0.03054711224322616</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0001959476261400229</v>
+        <v>0.008368492495785973</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.157327848243205e-05</v>
+        <v>0.04443207026358795</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.479241250077419e-07</v>
+        <v>0.02332215423613291</v>
       </c>
     </row>
     <row r="7">
@@ -3213,88 +3213,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1409549928501424</v>
+        <v>0.1409595358734242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1382091141665078</v>
+        <v>0.1354001549989928</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1394233441669667</v>
+        <v>0.1365467205420871</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1451885705322234</v>
+        <v>0.1347395727973908</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1616670442451332</v>
+        <v>0.138291034980587</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1660496746708562</v>
+        <v>0.132559715557494</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1868739649028173</v>
+        <v>0.1126095721863426</v>
       </c>
       <c r="I7" t="n">
-        <v>0.192539981324963</v>
+        <v>0.09177442689636454</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1368725832525374</v>
+        <v>0.09829024910608136</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1286380572993615</v>
+        <v>0.06276018459381907</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08139198290970358</v>
+        <v>0.01755173091664467</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06464520058917059</v>
+        <v>0.02539194155570328</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06782596461779122</v>
+        <v>0.03893204661542981</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02919149050305163</v>
+        <v>0.03942413047596929</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08780499529242462</v>
+        <v>0.05535057218094872</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01996909532222541</v>
+        <v>0.1008418519828708</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006868692926094307</v>
+        <v>0.1325152894149663</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005630793568139986</v>
+        <v>0.1437159509022834</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001029339856650583</v>
+        <v>0.1189391328262308</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003451184879475944</v>
+        <v>0.07753328173439099</v>
       </c>
       <c r="V7" t="n">
-        <v>2.999150413601217e-05</v>
+        <v>0.1060808475616759</v>
       </c>
       <c r="W7" t="n">
-        <v>1.820852405483771e-05</v>
+        <v>0.06505159409060247</v>
       </c>
       <c r="X7" t="n">
-        <v>2.536193327149115e-05</v>
+        <v>0.03610564550352284</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.731017408355466e-06</v>
+        <v>0.04443350113453718</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.47583515837239e-07</v>
+        <v>0.01117464432691842</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.377108988203728e-07</v>
+        <v>0.02198515183815413</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.080116383617245e-07</v>
+        <v>0.005415334125584525</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.469644893229433e-09</v>
+        <v>2.440551702760676e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3304,88 +3304,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1535535627422605</v>
+        <v>0.1529597302053357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1669813314265534</v>
+        <v>0.1763245710597358</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1637771639842827</v>
+        <v>0.1723479018842367</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1670729454703184</v>
+        <v>0.1799182021239813</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1997492308252223</v>
+        <v>0.1667225492116985</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1918778054527464</v>
+        <v>0.1518921037476323</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2203872509535282</v>
+        <v>0.121577135490831</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2002245174503963</v>
+        <v>0.09051269027932236</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2235746197351888</v>
+        <v>0.09274663632830057</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2177521530962238</v>
+        <v>0.05162115410915059</v>
       </c>
       <c r="L8" t="n">
-        <v>0.234723289316199</v>
+        <v>0.09065963732940219</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2271529919046213</v>
+        <v>0.08141513105366985</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1922493488161128</v>
+        <v>0.06769163780958559</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2225306793766298</v>
+        <v>0.06352482324398032</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1503102569412384</v>
+        <v>0.05186782498921438</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.254800466454719</v>
+        <v>0.02791520666771657</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2540415243972082</v>
+        <v>0.0147257628456936</v>
       </c>
       <c r="S8" t="n">
-        <v>0.196060169865506</v>
+        <v>0.01097229989416085</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1828751123502219</v>
+        <v>0.021614485555746</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2618245434766753</v>
+        <v>0.03039755811932227</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3084313702081156</v>
+        <v>0.01692274417555704</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1692501337840704</v>
+        <v>0.03132968275768749</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01401030407838347</v>
+        <v>0.04704638434020627</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001744080750798126</v>
+        <v>0.02957930330299023</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0007429538006704349</v>
+        <v>0.02187389848497632</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.431817275687161e-05</v>
+        <v>0.006124991512307503</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.00562174656771e-06</v>
+        <v>0.03377826211508583</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.262442973174852e-08</v>
+        <v>0.01839752592166272</v>
       </c>
     </row>
   </sheetData>
@@ -3500,88 +3500,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1450258706616232</v>
+        <v>0.1431965056759029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.146040531134624</v>
+        <v>0.139401471281772</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1438562760018361</v>
+        <v>0.1412898016058517</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1270002009068073</v>
+        <v>0.142575579640271</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09691061945962282</v>
+        <v>0.1441484468969313</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1456900483792438</v>
+        <v>0.1711913577593688</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1664347256426404</v>
+        <v>0.1549884841191872</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1494012316613207</v>
+        <v>0.1313210758076475</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1419997633561439</v>
+        <v>0.1672985122982224</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1638440042978865</v>
+        <v>0.1337717826440858</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1697494299545443</v>
+        <v>0.1304457924687589</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1527426001517633</v>
+        <v>0.1525970246469778</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1859478613445582</v>
+        <v>0.1558046246527056</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2070269196233972</v>
+        <v>0.1550000733896167</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1875894664925303</v>
+        <v>0.125056812261146</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07679876945916002</v>
+        <v>0.1023555844193473</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04307805407658791</v>
+        <v>0.07485132264693678</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02016358892452515</v>
+        <v>0.09475510292987047</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05680065448243068</v>
+        <v>0.1137568395240058</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02705783736774123</v>
+        <v>0.05305656325226757</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03906744127990511</v>
+        <v>0.09096705934801726</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02372496080238962</v>
+        <v>0.05906454043180138</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01538648071337709</v>
+        <v>0.1314525210604777</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002134854401395606</v>
+        <v>0.02503871926917764</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0002333717896176335</v>
+        <v>0.01828926574822857</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.718335313616714e-05</v>
+        <v>0.01256318701184144</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.284458396246791e-05</v>
+        <v>0.002334718001949436</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.914861750931328e-07</v>
+        <v>0.002351289905429686</v>
       </c>
     </row>
     <row r="3">
@@ -3591,88 +3591,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1362734764666019</v>
+        <v>0.1436684465492103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1315029084808448</v>
+        <v>0.1546022380562717</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1420466582871203</v>
+        <v>0.1489049943172764</v>
       </c>
       <c r="E3" t="n">
-        <v>0.169332768785092</v>
+        <v>0.1441631335274648</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2145636036337286</v>
+        <v>0.1377826364405116</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1433265698118822</v>
+        <v>0.0882574469650019</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1042604151091854</v>
+        <v>0.1198466415769182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1365002936164235</v>
+        <v>0.1594141284235254</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2125679430888179</v>
+        <v>0.1168680232341294</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05376591573895758</v>
+        <v>0.1686000770284279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1023405767947007</v>
+        <v>0.1051200373695307</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04870200260689489</v>
+        <v>0.08835642396939428</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03585865284403879</v>
+        <v>0.127716251767212</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009054136715380029</v>
+        <v>0.09107998242733176</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00129840549018412</v>
+        <v>0.03451044178657742</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001944635846009097</v>
+        <v>0.01022781866711101</v>
       </c>
       <c r="R3" t="n">
-        <v>3.805756499367104e-05</v>
+        <v>0.004580666122255316</v>
       </c>
       <c r="S3" t="n">
-        <v>4.420390611970425e-06</v>
+        <v>0.003867540771882659</v>
       </c>
       <c r="T3" t="n">
-        <v>3.886903764368224e-05</v>
+        <v>0.008267539604672209</v>
       </c>
       <c r="U3" t="n">
-        <v>1.600894106987092e-06</v>
+        <v>6.432132184951679e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>3.348583580656785e-07</v>
+        <v>3.446822828782053e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.054258981985032e-07</v>
+        <v>1.455121914221489e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>2.170107427167075e-08</v>
+        <v>3.15978012866152e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.893633263355716e-09</v>
+        <v>1.05970083034128e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.576461187484323e-11</v>
+        <v>6.080616630734346e-08</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.501773612135081e-12</v>
+        <v>3.36589421582851e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.99144655574583e-13</v>
+        <v>7.335506043571644e-09</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.826828723649215e-14</v>
+        <v>6.450743265183961e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3682,88 +3682,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1362734662132917</v>
+        <v>0.1436684458806597</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1315028923184936</v>
+        <v>0.1546022549815468</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142046654863659</v>
+        <v>0.1489050022501044</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1693323292404242</v>
+        <v>0.1441631347792748</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2145623096202057</v>
+        <v>0.1377826291429692</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1433267703276292</v>
+        <v>0.08825791171242267</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1042609313360081</v>
+        <v>0.1198468312494793</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1365006099881313</v>
+        <v>0.1594136544686956</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09505016770122762</v>
+        <v>0.116868534065608</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1758528056449825</v>
+        <v>0.1685998573415029</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1424685768448751</v>
+        <v>0.2120885500962714</v>
       </c>
       <c r="M4" t="n">
-        <v>0.184581369522205</v>
+        <v>0.1969166679348675</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1736526181026735</v>
+        <v>0.1608574885542302</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1886217756194347</v>
+        <v>0.1894641445665269</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2124720997550633</v>
+        <v>0.2614456243882123</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2343807466887391</v>
+        <v>0.3051869720885507</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2347435512498079</v>
+        <v>0.3145513376638003</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2335514074406948</v>
+        <v>0.3098329102610081</v>
       </c>
       <c r="T4" t="n">
-        <v>0.188423945211307</v>
+        <v>0.2974442662610008</v>
       </c>
       <c r="U4" t="n">
-        <v>0.18767049590233</v>
+        <v>0.3582192783421002</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1428950856045849</v>
+        <v>0.2827025042485146</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1559950444132161</v>
+        <v>0.3399664932536882</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08659303613921983</v>
+        <v>0.2587348199133465</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1006615002011619</v>
+        <v>0.312222852978808</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0943756553812317</v>
+        <v>0.3460495050040295</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1247204597555784</v>
+        <v>0.3579711348397389</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1072155210302263</v>
+        <v>0.4650081136327077</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.09479826498019339</v>
+        <v>0.451289882871483</v>
       </c>
     </row>
     <row r="5">
@@ -3773,88 +3773,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1362696063918786</v>
+        <v>0.1436681940045179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1314968081866342</v>
+        <v>0.1546086262811076</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1420453659108127</v>
+        <v>0.1489079883559259</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1693384066053751</v>
+        <v>0.1441636058940867</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2145828972732355</v>
+        <v>0.1377798819963956</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1433219027067786</v>
+        <v>0.08824794492915969</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1042509152245718</v>
+        <v>0.1198410144979247</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1364937813109763</v>
+        <v>0.1594186156433769</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1308484033365103</v>
+        <v>0.1168571647804976</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1485791307042837</v>
+        <v>0.1686001811976332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1550163399117109</v>
+        <v>0.1633810929757123</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1382193467195467</v>
+        <v>0.1921627433723149</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1689568094986641</v>
+        <v>0.1974317729921681</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1886568891077476</v>
+        <v>0.195554294717569</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1727327859450472</v>
+        <v>0.1556037799489228</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07199109643722693</v>
+        <v>0.1289577736440635</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04092266761527784</v>
+        <v>0.09490417582228068</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01953027855056</v>
+        <v>0.1195578733469227</v>
       </c>
       <c r="T5" t="n">
-        <v>0.042797128012783</v>
+        <v>0.1428058590180616</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02811154159795593</v>
+        <v>0.0695367237442973</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0441685231837536</v>
+        <v>0.1194172062793855</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02987230630346731</v>
+        <v>0.08340345742952517</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02435500993261529</v>
+        <v>0.1469057063347508</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003899951497658584</v>
+        <v>0.07131375316232061</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001496128721380589</v>
+        <v>0.05448344865897239</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001213434996196283</v>
+        <v>0.03935551879022232</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001205899737625989</v>
+        <v>0.006208916803940373</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.96155429809481e-06</v>
+        <v>0.006460331525721828</v>
       </c>
     </row>
     <row r="6">
@@ -3864,88 +3864,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1526415350565182</v>
+        <v>0.1409962005884627</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1603168548594095</v>
+        <v>0.1249530619176749</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1432815587829532</v>
+        <v>0.1334021357721392</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1194359631868284</v>
+        <v>0.140736468603593</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08194565174182558</v>
+        <v>0.150771377313829</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1396482222024511</v>
+        <v>0.197725168458288</v>
       </c>
       <c r="H6" t="n">
-        <v>0.176999562901228</v>
+        <v>0.1667548681222166</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1461013116202552</v>
+        <v>0.1311550043734271</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09826955190262401</v>
+        <v>0.1594275263283582</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1889507307867263</v>
+        <v>0.1154257331010109</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1490052911870695</v>
+        <v>0.1500488683432412</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2020878994235743</v>
+        <v>0.1354438955151052</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1827409781223941</v>
+        <v>0.1079514967848536</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1891820565345147</v>
+        <v>0.1297882481108301</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2087460394986738</v>
+        <v>0.188271264347291</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.31226968813261</v>
+        <v>0.2184023435971205</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3474325310883364</v>
+        <v>0.253570723790303</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3716240787817109</v>
+        <v>0.2320520888739819</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3989087152990836</v>
+        <v>0.2100307432151609</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4306709281801923</v>
+        <v>0.2588007852780773</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4882594264034453</v>
+        <v>0.2796527390976064</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4817088669878647</v>
+        <v>0.266471931683732</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6194136717293582</v>
+        <v>0.2569892940136435</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6468324076659623</v>
+        <v>0.3322327952376894</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6463810744352112</v>
+        <v>0.3113284603117263</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6573753260284144</v>
+        <v>0.3175381165286412</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6521156386725508</v>
+        <v>0.3140549901114642</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7311449527180354</v>
+        <v>0.318810966203435</v>
       </c>
     </row>
     <row r="7">
@@ -3955,88 +3955,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1412397023664597</v>
+        <v>0.1436578187709059</v>
       </c>
       <c r="C7" t="n">
-        <v>0.13955580846871</v>
+        <v>0.1461552228137501</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1433575075666851</v>
+        <v>0.1447820327440109</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1258554205220409</v>
+        <v>0.1433728279812952</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09505147353678806</v>
+        <v>0.1413305204980081</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1447614562000315</v>
+        <v>0.1695901774733735</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1669955159832129</v>
+        <v>0.1524704387740225</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1487072037411701</v>
+        <v>0.1282410517291664</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2226202128272046</v>
+        <v>0.1630548101499268</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07983867794820595</v>
+        <v>0.1291062217302894</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1319550330577188</v>
+        <v>0.08861381763530561</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07162466929353582</v>
+        <v>0.09857661293498234</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0696154306865551</v>
+        <v>0.1416956878914508</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02630935685230556</v>
+        <v>0.1088073217785228</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005254040509904218</v>
+        <v>0.04672561888174168</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008611360600315376</v>
+        <v>0.01556306700299597</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0001931688754652234</v>
+        <v>0.007460807425916669</v>
       </c>
       <c r="S7" t="n">
-        <v>2.617360933181998e-05</v>
+        <v>0.008628620029364074</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002386364598633774</v>
+        <v>0.01656433153991397</v>
       </c>
       <c r="U7" t="n">
-        <v>1.17251305623597e-05</v>
+        <v>0.0001079200723430086</v>
       </c>
       <c r="V7" t="n">
-        <v>3.031543520300764e-06</v>
+        <v>6.619598400809275e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.022930250479607e-06</v>
+        <v>2.927735872047325e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>2.324197731046205e-07</v>
+        <v>7.531506184456677e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.099614145957162e-08</v>
+        <v>1.207651726818328e-07</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.981185869314338e-10</v>
+        <v>7.098542056926061e-08</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.781710420776706e-11</v>
+        <v>4.005502621924514e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.151780629615331e-11</v>
+        <v>8.750668099091622e-09</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.135504545574792e-13</v>
+        <v>7.783362803930664e-09</v>
       </c>
     </row>
     <row r="8">
@@ -4046,88 +4046,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1522763428436265</v>
+        <v>0.1411443885303404</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1595841965512838</v>
+        <v>0.1256771246678768</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1433659785869336</v>
+        <v>0.1338080449546913</v>
       </c>
       <c r="E8" t="n">
-        <v>0.119704910753432</v>
+        <v>0.1408252495740146</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08238344473459368</v>
+        <v>0.1504045077113552</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1399250303719835</v>
+        <v>0.1967299927023856</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1767979338031535</v>
+        <v>0.1662517216602514</v>
       </c>
       <c r="I8" t="n">
-        <v>0.146295568061723</v>
+        <v>0.1310364695541611</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09864395778747173</v>
+        <v>0.1596254291432575</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1891687348789575</v>
+        <v>0.1158961469570501</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1494647522493806</v>
+        <v>0.15030184111118</v>
       </c>
       <c r="M8" t="n">
-        <v>0.20204211228248</v>
+        <v>0.135946631626358</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1832276494011163</v>
+        <v>0.1085426773573796</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1911488655472203</v>
+        <v>0.1303059350096028</v>
       </c>
       <c r="P8" t="n">
-        <v>0.211907162308597</v>
+        <v>0.1883864583861087</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3035040996376315</v>
+        <v>0.219306440580811</v>
       </c>
       <c r="R8" t="n">
-        <v>0.333591969529531</v>
+        <v>0.2500809665285074</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3551000523025653</v>
+        <v>0.2313058637869702</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3127920514968887</v>
+        <v>0.2111304208371848</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3264758709271113</v>
+        <v>0.2602144079890651</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2856061571264326</v>
+        <v>0.2271598268141804</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3086976931369135</v>
+        <v>0.2510497486233907</v>
       </c>
       <c r="X8" t="n">
-        <v>0.254251547364582</v>
+        <v>0.2058107458146504</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.246471263344047</v>
+        <v>0.2591916526167486</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2575137691286757</v>
+        <v>0.2698491884854563</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2177656873329326</v>
+        <v>0.272571969115588</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2405354057269808</v>
+        <v>0.2123932453637642</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1740535292610661</v>
+        <v>0.2210875152598245</v>
       </c>
     </row>
   </sheetData>
@@ -4242,88 +4242,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1453163347879265</v>
+        <v>0.1441511330858208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1436355215859741</v>
+        <v>0.1381563137773994</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1440021724924303</v>
+        <v>0.1405554609821283</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1703562236727303</v>
+        <v>0.1420661341170365</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1769956627377994</v>
+        <v>0.1431097041024508</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1783132361229835</v>
+        <v>0.115108424942888</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1846896692186127</v>
+        <v>0.1513449210034013</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1010785903495905</v>
+        <v>0.1694949637185813</v>
       </c>
       <c r="J2" t="n">
-        <v>0.103283981055822</v>
+        <v>0.2048936259570928</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1099382287101648</v>
+        <v>0.1529266712980044</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1216014780961863</v>
+        <v>0.1626243337188372</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0960773925694814</v>
+        <v>0.1655461622624691</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1050558569260161</v>
+        <v>0.1670246409927933</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07326232899426892</v>
+        <v>0.1428992265071624</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03413212144160137</v>
+        <v>0.09329488715986231</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07088383250786699</v>
+        <v>0.134519341155085</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05068053290169842</v>
+        <v>0.09173114894865211</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01774606301817937</v>
+        <v>0.07735471445910112</v>
       </c>
       <c r="T2" t="n">
-        <v>0.009912642523699266</v>
+        <v>0.04179504716189794</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004795178298736513</v>
+        <v>0.01813214996948891</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002822757211477434</v>
+        <v>0.03582908163274491</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001518295098477755</v>
+        <v>0.001282780518373291</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0006107626025148984</v>
+        <v>0.0002507787666359524</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001049161501139084</v>
+        <v>0.0001466763499875866</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.379907747437649e-05</v>
+        <v>1.738161696222376e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.068235235620327e-05</v>
+        <v>2.877268476561028e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.910922792786091e-06</v>
+        <v>1.118760672777999e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.406676630978081e-10</v>
+        <v>5.951166764170415e-06</v>
       </c>
     </row>
     <row r="3">
@@ -4333,88 +4333,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1345467591613349</v>
+        <v>0.1394198227281566</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1422972460538015</v>
+        <v>0.157646072018757</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1430529658477564</v>
+        <v>0.1511081698225822</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09593307885694254</v>
+        <v>0.1479286207001921</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09449239811627519</v>
+        <v>0.1456528083436339</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09965852856613346</v>
+        <v>0.1903903089760608</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1019427193777727</v>
+        <v>0.1420968904781326</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2287266815921412</v>
+        <v>0.1144367234570099</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2978256631192785</v>
+        <v>0.06046321819294512</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116744315536386</v>
+        <v>0.1553533714396952</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2913635885447444</v>
+        <v>0.06370950765941034</v>
       </c>
       <c r="M3" t="n">
-        <v>0.393880720764879</v>
+        <v>0.1375619691400669</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3669751216800443</v>
+        <v>0.1643881837346781</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4654243309964532</v>
+        <v>0.2609806569832443</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5984757564863062</v>
+        <v>0.4076842403832546</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4794235133657553</v>
+        <v>0.3157531839072046</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5173420848013983</v>
+        <v>0.3933343696793325</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5935458943817895</v>
+        <v>0.4096598598873099</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6352295489021765</v>
+        <v>0.4521117052820702</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6422482143577254</v>
+        <v>0.4811561138226243</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6333923797068266</v>
+        <v>0.402604769391213</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6078912277123072</v>
+        <v>0.5320656861211456</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6163876056681127</v>
+        <v>0.5516440225249972</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6431039408525696</v>
+        <v>0.5198081485173163</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6673995244446314</v>
+        <v>0.5673143948096699</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6424770656670717</v>
+        <v>0.5935307238102058</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.665099107586409</v>
+        <v>0.5813846882320489</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6872366561633114</v>
+        <v>0.5438986949479596</v>
       </c>
     </row>
     <row r="4">
@@ -4424,88 +4424,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1345467469622835</v>
+        <v>0.139419816821642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1422972434449971</v>
+        <v>0.1576460947794674</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1430529626007215</v>
+        <v>0.1511081815040841</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09593358243998371</v>
+        <v>0.1479286259208709</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09449317403347687</v>
+        <v>0.1456528091884891</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09965959527519215</v>
+        <v>0.1903896903547815</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1019442356777742</v>
+        <v>0.1420976246285602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2287286702715271</v>
+        <v>0.1144377255212549</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1568296729166617</v>
+        <v>0.06046443418816743</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1205014555127748</v>
+        <v>0.1553551478456721</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1001074236268098</v>
+        <v>0.2106824545963955</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04836828165123197</v>
+        <v>0.1548991589095199</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03505434904446762</v>
+        <v>0.1321358110340442</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01954396775127851</v>
+        <v>0.08613491424139928</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006409876545352095</v>
+        <v>0.03678849397240745</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01536150365390557</v>
+        <v>0.04473271408818582</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00523593355563327</v>
+        <v>0.01745278293472447</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002156780331946488</v>
+        <v>0.00673782422885189</v>
       </c>
       <c r="T4" t="n">
-        <v>8.680301439093021e-05</v>
+        <v>0.00182271624913713</v>
       </c>
       <c r="U4" t="n">
-        <v>1.706441586060852e-05</v>
+        <v>0.0003173622756527102</v>
       </c>
       <c r="V4" t="n">
-        <v>4.098073221989604e-06</v>
+        <v>0.0002638237735048459</v>
       </c>
       <c r="W4" t="n">
-        <v>5.433527415873603e-07</v>
+        <v>1.054122443721495e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>7.252658159824389e-08</v>
+        <v>2.827429256152325e-08</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.369204924990472e-09</v>
+        <v>1.089181756212005e-09</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.119492542667502e-10</v>
+        <v>1.677738344617012e-11</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.792554256457619e-11</v>
+        <v>3.129650552161427e-13</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.559369507362304e-12</v>
+        <v>1.078220577001423e-14</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.030861241760236e-14</v>
+        <v>4.508892025470751e-17</v>
       </c>
     </row>
     <row r="5">
@@ -4515,88 +4515,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1345421547332676</v>
+        <v>0.1394175932727705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1422962612086789</v>
+        <v>0.1576546629701595</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1430517399362406</v>
+        <v>0.1511125788592398</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09592391983330432</v>
+        <v>0.1479305909613228</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09447876267439705</v>
+        <v>0.1456531268944159</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09964005299537207</v>
+        <v>0.1904009409021958</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1019168125771165</v>
+        <v>0.1420851110982666</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2286918464436752</v>
+        <v>0.114420465366377</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2357677184544109</v>
+        <v>0.0604433127770136</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2524921484659687</v>
+        <v>0.155324440141147</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2807170557025131</v>
+        <v>0.1638202062821504</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2245800205838562</v>
+        <v>0.1682797624410479</v>
       </c>
       <c r="N5" t="n">
-        <v>0.24719105875822</v>
+        <v>0.1704746880762531</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1714941948523548</v>
+        <v>0.1469393805868109</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07923080364528681</v>
+        <v>0.09703395846717809</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.165712498783219</v>
+        <v>0.1396921576906706</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1167821982978438</v>
+        <v>0.0942027233085795</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0395542826739372</v>
+        <v>0.07857959921608931</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02082495547508863</v>
+        <v>0.04188680887738197</v>
       </c>
       <c r="U5" t="n">
-        <v>0.008652902944526166</v>
+        <v>0.01785534856407253</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004421795299935923</v>
+        <v>0.03274094862435739</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001878366248975857</v>
+        <v>0.0007605462850970086</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0006350767693875618</v>
+        <v>0.0001077478147357897</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.165033097460932e-05</v>
+        <v>4.451788788786254e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.949709160877861e-05</v>
+        <v>3.743430969847882e-06</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.261021054901423e-06</v>
+        <v>4.150598651118699e-07</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.264657718956162e-06</v>
+        <v>1.108453533329191e-07</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.164628792572037e-12</v>
+        <v>6.722987218822042e-07</v>
       </c>
     </row>
     <row r="6">
@@ -4606,88 +4606,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1554993266598535</v>
+        <v>0.147788491804803</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1430574651343959</v>
+        <v>0.1207112543412747</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1412784764861789</v>
+        <v>0.1301551713218651</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1849805711767571</v>
+        <v>0.1343779147233687</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1807097183373526</v>
+        <v>0.1374491914360792</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1719456369512211</v>
+        <v>0.09899128542968048</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1626257248597463</v>
+        <v>0.1348165484093241</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05764813738889484</v>
+        <v>0.1577583623885331</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03747691731998342</v>
+        <v>0.2024590811149301</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02741706746824175</v>
+        <v>0.1142181719228229</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02181849738286441</v>
+        <v>0.1581049664277837</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00994459580966269</v>
+        <v>0.1120656039370581</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006743491165620005</v>
+        <v>0.09358153712150599</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003549423568862898</v>
+        <v>0.05912554005188829</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001067952440119716</v>
+        <v>0.02403595608155037</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002438374216601028</v>
+        <v>0.0270949479158331</v>
       </c>
       <c r="R6" t="n">
-        <v>0.000673862768654464</v>
+        <v>0.008960464504305149</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33379499351938e-05</v>
+        <v>0.002480212693363334</v>
       </c>
       <c r="T6" t="n">
-        <v>5.86216640547361e-06</v>
+        <v>0.0005442002258869865</v>
       </c>
       <c r="U6" t="n">
-        <v>1.480257919999893e-06</v>
+        <v>7.17467700206172e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>4.62443119214891e-07</v>
+        <v>8.345713800410535e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>8.961446455320062e-08</v>
+        <v>5.584694955012762e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>1.658859925613149e-08</v>
+        <v>2.631537956022332e-08</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.882178794052137e-10</v>
+        <v>2.427117685234017e-09</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.460108819861371e-10</v>
+        <v>6.586392362451042e-11</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.418352707029553e-12</v>
+        <v>1.285418251335287e-12</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.008723239342462e-13</v>
+        <v>4.696795214762927e-14</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.508095448584284e-15</v>
+        <v>2.324804113967008e-16</v>
       </c>
     </row>
     <row r="7">
@@ -4697,88 +4697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1405623195656747</v>
+        <v>0.1421792613399231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432841067988772</v>
+        <v>0.1466145015389655</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1440586587684976</v>
+        <v>0.1452707227776213</v>
       </c>
       <c r="E7" t="n">
-        <v>0.172133098966902</v>
+        <v>0.1449550308488385</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1779699320244967</v>
+        <v>0.1446718567047309</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1783848902220005</v>
+        <v>0.1151441311883618</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1833423187933108</v>
+        <v>0.1520468068682133</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09638665862251948</v>
+        <v>0.171063632173617</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1304821429543035</v>
+        <v>0.2082736839609301</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1498318939702135</v>
+        <v>0.1513495595386571</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1619240053969581</v>
+        <v>0.0814436291311512</v>
       </c>
       <c r="M7" t="n">
-        <v>0.216865488747147</v>
+        <v>0.1482148993333597</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2319727168276549</v>
+        <v>0.1775262637038278</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2630070139840798</v>
+        <v>0.243846913418127</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2795508658560669</v>
+        <v>0.3166545015131329</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2635687716459298</v>
+        <v>0.3102600624325395</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3085417500806155</v>
+        <v>0.3848512460096333</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3489083854488687</v>
+        <v>0.422428786521699</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3339334125609262</v>
+        <v>0.4612153782415725</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3442837145014906</v>
+        <v>0.4823815882388202</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3593581286864895</v>
+        <v>0.5283978732912494</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3887114212640339</v>
+        <v>0.4658889994426109</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3823664574062382</v>
+        <v>0.4479973842198146</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3567094881014971</v>
+        <v>0.4800006531081918</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3325271785518067</v>
+        <v>0.4326644800482722</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3575079909348038</v>
+        <v>0.4064659838596228</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3348957168308976</v>
+        <v>0.4186140821618582</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3127633434888423</v>
+        <v>0.4560946815865539</v>
       </c>
     </row>
     <row r="8">
@@ -4788,88 +4788,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1549863581296593</v>
+        <v>0.1476238809468841</v>
       </c>
       <c r="C8" t="n">
-        <v>0.143132155773275</v>
+        <v>0.1215711005739765</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1415030238681746</v>
+        <v>0.1306897147324793</v>
       </c>
       <c r="E8" t="n">
-        <v>0.18473952505338</v>
+        <v>0.1348130827283706</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1808603520762022</v>
+        <v>0.1378105033302002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1723980598670971</v>
+        <v>0.09957521820603153</v>
       </c>
       <c r="H8" t="n">
-        <v>0.163538519495667</v>
+        <v>0.1355120975141018</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05873941533165191</v>
+        <v>0.1583881273746268</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03833390417953999</v>
+        <v>0.2030026438089209</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02814477431899802</v>
+        <v>0.1154726378140014</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02246795124992394</v>
+        <v>0.1596149021842718</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01028349987374171</v>
+        <v>0.1134324439764785</v>
       </c>
       <c r="N8" t="n">
-        <v>0.007007405597976943</v>
+        <v>0.09486887533689754</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003718739852701922</v>
+        <v>0.06007336821136795</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001132623585266932</v>
+        <v>0.02450796242261434</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002611505826722573</v>
+        <v>0.02794759281048126</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0007436375941562068</v>
+        <v>0.009467264614772972</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6358494095254e-05</v>
+        <v>0.002759002993585372</v>
       </c>
       <c r="T8" t="n">
-        <v>6.775357312916064e-06</v>
+        <v>0.0006241439620533532</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44522374084686e-06</v>
+        <v>8.569035932064092e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>3.785789293147333e-07</v>
+        <v>8.004614892618627e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>5.670899893622415e-08</v>
+        <v>3.750408339725586e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>8.438565764649574e-09</v>
+        <v>1.208414446226061e-08</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.074219443378168e-10</v>
+        <v>6.203170377192915e-10</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.651860974902604e-11</v>
+        <v>1.148431566008085e-11</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.369258968706046e-12</v>
+        <v>2.313898653391155e-13</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.21309562748832e-13</v>
+        <v>8.811081893357771e-15</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.325671255870402e-15</v>
+        <v>4.963270792985887e-17</v>
       </c>
     </row>
   </sheetData>
@@ -4984,88 +4984,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.140353510858965</v>
+        <v>0.1466932061717035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1390059209646838</v>
+        <v>0.1480165287206671</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1413891883887258</v>
+        <v>0.1487453801245525</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1620187628074012</v>
+        <v>0.1488143927425043</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1729902033194942</v>
+        <v>0.1487809596143512</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1928933996552582</v>
+        <v>0.1629202906021894</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1928746271919498</v>
+        <v>0.1560050878989334</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1734542578643313</v>
+        <v>0.1601663558120349</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1977302869509892</v>
+        <v>0.1620899098144959</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2347342420686287</v>
+        <v>0.1775603843207373</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2030290387646706</v>
+        <v>0.1802475950943358</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2199077672534399</v>
+        <v>0.1714643134512648</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2035549329085111</v>
+        <v>0.1876393926989054</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2303048700560718</v>
+        <v>0.2041843021393655</v>
       </c>
       <c r="P2" t="n">
-        <v>0.183246496295408</v>
+        <v>0.181283220419432</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07535467380002003</v>
+        <v>0.1101005978139821</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06340926484505489</v>
+        <v>0.05682185907388904</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0938796137105794</v>
+        <v>0.03720464539700197</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08254375429265896</v>
+        <v>0.07493141240373428</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008606333749163137</v>
+        <v>0.03110373870146729</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005229295506538592</v>
+        <v>0.02091391138279263</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02216943270060909</v>
+        <v>0.01570643672734782</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005873177769163682</v>
+        <v>0.003784706309508033</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002079333333419902</v>
+        <v>0.001740948936149533</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.649293205750947e-08</v>
+        <v>2.641075386415034e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.177264092324175e-09</v>
+        <v>1.285168574239171e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.39265022657928e-10</v>
+        <v>8.380516399336826e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.799896972530679e-11</v>
+        <v>5.34672796797955e-06</v>
       </c>
     </row>
     <row r="3">
@@ -5075,88 +5075,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1506859722665359</v>
+        <v>0.1315266612858612</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1555132384914087</v>
+        <v>0.1240384578605829</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1483341163793432</v>
+        <v>0.116715785077913</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1136884191236345</v>
+        <v>0.1069133069709036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1078014941597259</v>
+        <v>0.09403800307713812</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06568582903381109</v>
+        <v>0.05001414201722477</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05328611966508125</v>
+        <v>0.07372429823588794</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09813070554693686</v>
+        <v>0.04957663088625107</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01723671033978917</v>
+        <v>0.02305762264787471</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01335426425855269</v>
+        <v>0.02099298832367856</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007257394443567206</v>
+        <v>0.04563514676952713</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01338222916260464</v>
+        <v>0.0659111822946028</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006241391791747245</v>
+        <v>0.04346345943942876</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002014362153023824</v>
+        <v>0.0235175956579041</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0006098284865647942</v>
+        <v>0.01368652950992941</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.149300954028382e-07</v>
+        <v>0.004508683377814212</v>
       </c>
       <c r="R3" t="n">
-        <v>1.217676023561364e-07</v>
+        <v>0.0001595541444779784</v>
       </c>
       <c r="S3" t="n">
-        <v>4.980099060497496e-07</v>
+        <v>6.786171955807184e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>9.197840344051481e-08</v>
+        <v>8.349568579628006e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>2.437287374125793e-09</v>
+        <v>1.617981183299103e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>4.477740807237107e-10</v>
+        <v>7.032734949741858e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>6.846399257065682e-10</v>
+        <v>3.826162988001641e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>7.899917103870527e-11</v>
+        <v>5.115107329435151e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.905963021439301e-11</v>
+        <v>1.471520133296858e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.18829679528784e-14</v>
+        <v>8.259472922509995e-09</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.677880641008791e-15</v>
+        <v>2.868121595793404e-09</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.50116769833587e-17</v>
+        <v>1.525280239507248e-09</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.229255299172317e-18</v>
+        <v>8.294872817065845e-10</v>
       </c>
     </row>
     <row r="4">
@@ -5166,88 +5166,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1506859844279431</v>
+        <v>0.1315266432395853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1555132573446338</v>
+        <v>0.1240384313937428</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1483341238674208</v>
+        <v>0.1167157516640366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1136888558118363</v>
+        <v>0.1069132661124026</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1078023596398655</v>
+        <v>0.09403795298236076</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06568668095067201</v>
+        <v>0.05001441258190364</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05328686607037843</v>
+        <v>0.07372435501410377</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09813149870175079</v>
+        <v>0.0495768356605551</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1307166747231404</v>
+        <v>0.02305786132262943</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1235612202326919</v>
+        <v>0.02099335943748336</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1383764807225711</v>
+        <v>0.01626310747068383</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1280133342875263</v>
+        <v>0.01336921636461088</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1414361360345328</v>
+        <v>0.01656644647966433</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1448726046710633</v>
+        <v>0.02014209694534497</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1623054815566942</v>
+        <v>0.0228502773893362</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1838196380183069</v>
+        <v>0.02403251261510515</v>
       </c>
       <c r="R4" t="n">
-        <v>0.183420680775312</v>
+        <v>0.02556213111976657</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1861903876846235</v>
+        <v>0.02338747211698971</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1678902205201773</v>
+        <v>0.0312876670986505</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2147248105522515</v>
+        <v>0.02755981926757897</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1782386708641167</v>
+        <v>0.03149582871565058</v>
       </c>
       <c r="W4" t="n">
-        <v>0.115182444170273</v>
+        <v>0.03437544911078523</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1006639413307973</v>
+        <v>0.03923009678900832</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1081261334094381</v>
+        <v>0.05197474645159252</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1060538937858845</v>
+        <v>0.05977207971262931</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.09503921655730753</v>
+        <v>0.06238611635721902</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1143062136346011</v>
+        <v>0.0638621455830507</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05335426686928122</v>
+        <v>0.06599116128958642</v>
       </c>
     </row>
     <row r="5">
@@ -5257,88 +5257,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1506905625682889</v>
+        <v>0.1315198497366496</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1555203544982925</v>
+        <v>0.1240284682868366</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1483369426188968</v>
+        <v>0.1167031737234298</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1136834812238483</v>
+        <v>0.1068978862174401</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1077893707018454</v>
+        <v>0.09401909690226395</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06567309260461285</v>
+        <v>0.04999918874201943</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0532748760525947</v>
+        <v>0.07370789341805947</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09811958178574133</v>
+        <v>0.04956285379171401</v>
       </c>
       <c r="J5" t="n">
-        <v>0.111054246130761</v>
+        <v>0.02304885141637978</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1321781277427459</v>
+        <v>0.02098246798076613</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1135882812462532</v>
+        <v>0.02147777277469903</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1236136002115505</v>
+        <v>0.02051813471223293</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1135617347097721</v>
+        <v>0.022340896200425</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1287620076506658</v>
+        <v>0.02414690920817552</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1035074375217014</v>
+        <v>0.02130945061678443</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04405865757599076</v>
+        <v>0.01306746725680582</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0372268371265528</v>
+        <v>0.006926523473971894</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05462904375150478</v>
+        <v>0.004561908013698538</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05687308886423917</v>
+        <v>0.009194281067368672</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01141623572934534</v>
+        <v>0.003865979103077622</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008813688241631482</v>
+        <v>0.002784256406862237</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03636101140736125</v>
+        <v>0.002197615251140552</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01218721211929602</v>
+        <v>0.0006413380874320953</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004776292709696404</v>
+        <v>0.000324459852890823</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.291754256829778e-06</v>
+        <v>6.015300021612344e-06</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.156440340909376e-06</v>
+        <v>3.182932599005306e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.765486481669744e-08</v>
+        <v>2.184543235200789e-06</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.872676151541911e-09</v>
+        <v>1.456369738374038e-06</v>
       </c>
     </row>
     <row r="6">
@@ -5348,88 +5348,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1311540983208403</v>
+        <v>0.1595794927083597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1237148686033728</v>
+        <v>0.1719179820835232</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1343562990392054</v>
+        <v>0.184561872680745</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1650171413962835</v>
+        <v>0.2024017582935324</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1630342256943325</v>
+        <v>0.2259766298978319</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2051828505941586</v>
+        <v>0.2793063217973625</v>
       </c>
       <c r="H6" t="n">
-        <v>0.223398188426367</v>
+        <v>0.2499161189144058</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1767165430831784</v>
+        <v>0.2824958601809517</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2372477594670976</v>
+        <v>0.3205507524169803</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2156070911387666</v>
+        <v>0.3094269210641298</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2494896624358235</v>
+        <v>0.2332649740860926</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2270129139935917</v>
+        <v>0.1887640681801839</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2508068026518839</v>
+        <v>0.234626654098815</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2383997024807699</v>
+        <v>0.282003305803017</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2707457546597122</v>
+        <v>0.3301660266686789</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3485524331615413</v>
+        <v>0.4147173219292546</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3588051345323462</v>
+        <v>0.4665311334743911</v>
       </c>
       <c r="S6" t="n">
-        <v>0.331168537041445</v>
+        <v>0.4839180947495749</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3668621506316134</v>
+        <v>0.4436700368291455</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3662704956349934</v>
+        <v>0.4762924991447335</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4248976970727551</v>
+        <v>0.4515338211017081</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5301233156936636</v>
+        <v>0.4331845526313625</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5673524287878502</v>
+        <v>0.3799376740145544</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5771206221423115</v>
+        <v>0.312059889336802</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5798435147179603</v>
+        <v>0.2245331361508452</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5725707475371385</v>
+        <v>0.2274192930665113</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6120746197208281</v>
+        <v>0.2290076176840677</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5520134839751725</v>
+        <v>0.2311925907532978</v>
       </c>
     </row>
     <row r="7">
@@ -5439,88 +5439,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1448214369221073</v>
+        <v>0.1401894881213639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1462543466256413</v>
+        <v>0.1372791267426972</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1445300984624733</v>
+        <v>0.1339559960169613</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1667632896934591</v>
+        <v>0.128780673932224</v>
       </c>
       <c r="F7" t="n">
-        <v>0.176983031374768</v>
+        <v>0.1218262380570814</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1996953491549169</v>
+        <v>0.1350796601024223</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2011166173691711</v>
+        <v>0.128478794928257</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1785896400286267</v>
+        <v>0.1331063845780476</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06869790407053419</v>
+        <v>0.1364212629671633</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06427271277120111</v>
+        <v>0.1478515934068569</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03856863031724144</v>
+        <v>0.2748603295337722</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06060648335572123</v>
+        <v>0.3550591126652645</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03304272278690651</v>
+        <v>0.2655479709396545</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01396275672851669</v>
+        <v>0.1695000460946462</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004847153193145761</v>
+        <v>0.1077139922377494</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.145622640316497e-06</v>
+        <v>0.03812254869880134</v>
       </c>
       <c r="R7" t="n">
-        <v>4.306554076274866e-06</v>
+        <v>0.001541741563426761</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47829990075449e-05</v>
+        <v>0.0006946508587057342</v>
       </c>
       <c r="T7" t="n">
-        <v>3.110214245252411e-06</v>
+        <v>0.0009401914228104689</v>
       </c>
       <c r="U7" t="n">
-        <v>7.538319258112102e-08</v>
+        <v>0.0001979535117482209</v>
       </c>
       <c r="V7" t="n">
-        <v>1.526295149222204e-08</v>
+        <v>9.042830904178178e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.631144733928565e-08</v>
+        <v>5.105642076723375e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>3.230160965403908e-09</v>
+        <v>7.142256276615989e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.041651022949877e-10</v>
+        <v>2.148436457441953e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.86132579744598e-13</v>
+        <v>1.104095508239103e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.106159150765352e-14</v>
+        <v>3.945658539373058e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.863238760532135e-15</v>
+        <v>2.134547201629022e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.13063060173565e-17</v>
+        <v>1.175503333529789e-08</v>
       </c>
     </row>
     <row r="8">
@@ -5530,88 +5530,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1316084346353195</v>
+        <v>0.158964658736477</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1244780134719671</v>
+        <v>0.1706810049119503</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1347192312439349</v>
+        <v>0.1826020407123619</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1651400499435369</v>
+        <v>0.199278715730993</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1635993151099685</v>
+        <v>0.2213211194689727</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2051827980065705</v>
+        <v>0.2726659841568779</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2227627052244578</v>
+        <v>0.2444434515903528</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1768577729894346</v>
+        <v>0.2755150790904456</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2373164183176885</v>
+        <v>0.3117737394144766</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2162923417874132</v>
+        <v>0.302192285466348</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2496905120698729</v>
+        <v>0.2282510742708895</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2274636717355656</v>
+        <v>0.18491397233184</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2513562791166463</v>
+        <v>0.2298151801431069</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2416836962598887</v>
+        <v>0.2765057441515466</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2747378482867736</v>
+        <v>0.3229905031580896</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3482072368914053</v>
+        <v>0.3954508683082368</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3571336543990555</v>
+        <v>0.4424570571500766</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3341171368029337</v>
+        <v>0.4501653671444711</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3258275834986625</v>
+        <v>0.4398929154924943</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3989820465137667</v>
+        <v>0.4609638304595613</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3828206326042325</v>
+        <v>0.4931747213489949</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2961637690320058</v>
+        <v>0.5144810636956088</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3139232366837328</v>
+        <v>0.5763985310324876</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3078976175819092</v>
+        <v>0.6338976598340943</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3140962632486685</v>
+        <v>0.715662239413616</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3323888732879062</v>
+        <v>0.7101785136332214</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2736190986504389</v>
+        <v>0.7071196488024948</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3946322452648711</v>
+        <v>0.7028094322748889</v>
       </c>
     </row>
   </sheetData>
